--- a/data/trans_orig/P1403-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38718</v>
+        <v>38660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66543</v>
+        <v>68029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1097647892197878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08172201419395274</v>
+        <v>0.08159916324533252</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1404532653722862</v>
+        <v>0.1435882200009582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>30032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21215</v>
+        <v>20355</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42070</v>
+        <v>40968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09792480066956873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06917555240110891</v>
+        <v>0.06637143623348757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1371799782544639</v>
+        <v>0.1335870437313616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -786,19 +786,19 @@
         <v>82036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66313</v>
+        <v>65208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100199</v>
+        <v>99502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1051122675977633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0849664245194988</v>
+        <v>0.08355051739524608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1283854713910939</v>
+        <v>0.1274916567558387</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>421772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407233</v>
+        <v>405747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435058</v>
+        <v>435116</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8902352107802122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8595467346277138</v>
+        <v>0.8564117799990418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9182779858060472</v>
+        <v>0.9184008367546675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>268</v>
@@ -836,19 +836,19 @@
         <v>276648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>264610</v>
+        <v>265712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285465</v>
+        <v>286325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9020751993304312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.862820021745536</v>
+        <v>0.8664129562686383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9308244475988909</v>
+        <v>0.9336285637665124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>674</v>
@@ -857,19 +857,19 @@
         <v>698421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>680258</v>
+        <v>680955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714144</v>
+        <v>715249</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8948877324022367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.871614528608906</v>
+        <v>0.8725083432441612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9150335754805011</v>
+        <v>0.9164494826047539</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>43858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32104</v>
+        <v>32457</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56697</v>
+        <v>57499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1195262953104953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0874930788707006</v>
+        <v>0.08845428937158888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1545155776841544</v>
+        <v>0.1566999283513093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>20346</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12512</v>
+        <v>12212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30844</v>
+        <v>30887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05471309610385286</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03364686869762146</v>
+        <v>0.03284107875637545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08294431436323603</v>
+        <v>0.08305957358172027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1003,19 +1003,19 @@
         <v>64204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50949</v>
+        <v>50990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82201</v>
+        <v>81870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08690341489031704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0689616582680581</v>
+        <v>0.06901725965205086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1112623830892257</v>
+        <v>0.1108146631460533</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>323076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>310237</v>
+        <v>309435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334830</v>
+        <v>334477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8804737046895047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8454844223158454</v>
+        <v>0.8433000716486904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9125069211292992</v>
+        <v>0.9115457106284111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -1053,19 +1053,19 @@
         <v>351519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341021</v>
+        <v>340978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359353</v>
+        <v>359653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9452869038961471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.917055685636764</v>
+        <v>0.9169404264182798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9663531313023788</v>
+        <v>0.9671589212436246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>649</v>
@@ -1074,19 +1074,19 @@
         <v>674595</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656598</v>
+        <v>656929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>687850</v>
+        <v>687809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9130965851096829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8887376169107742</v>
+        <v>0.8891853368539469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9310383417319419</v>
+        <v>0.9309827403479491</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>71079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54175</v>
+        <v>56093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86781</v>
+        <v>86331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1310476700921166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09988291169299743</v>
+        <v>0.103417803493572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.159997284625682</v>
+        <v>0.1591673441983199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>21247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13791</v>
+        <v>13402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31623</v>
+        <v>31419</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1266331623277505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08219480807073511</v>
+        <v>0.07987832611357212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1884751683759483</v>
+        <v>0.1872619691293755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1220,19 +1220,19 @@
         <v>92326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76339</v>
+        <v>75494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110950</v>
+        <v>111025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1300047177160742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1074931833658304</v>
+        <v>0.1063043625281342</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1562297123970096</v>
+        <v>0.1563357737891259</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>471310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455608</v>
+        <v>456058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488214</v>
+        <v>486296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8689523299078834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.840002715374318</v>
+        <v>0.8408326558016801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9001170883070025</v>
+        <v>0.896582196506428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -1270,19 +1270,19 @@
         <v>146535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136159</v>
+        <v>136363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153991</v>
+        <v>154380</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8733668376722494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8115248316240518</v>
+        <v>0.8127380308706245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9178051919292647</v>
+        <v>0.9201216738864278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -1291,19 +1291,19 @@
         <v>617845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>599221</v>
+        <v>599146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633832</v>
+        <v>634677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8699952822839258</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8437702876029904</v>
+        <v>0.8436642262108738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8925068166341698</v>
+        <v>0.8936956374718654</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>211454</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>188036</v>
+        <v>187586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237359</v>
+        <v>238798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1707572147404877</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.151846319689753</v>
+        <v>0.1514824472934654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1916758807291944</v>
+        <v>0.1928384269490801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1416,19 +1416,19 @@
         <v>101835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84843</v>
+        <v>82119</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122027</v>
+        <v>121461</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1425689802439618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1187804732394843</v>
+        <v>0.1149669554135024</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1708374858808277</v>
+        <v>0.1700450003800155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>323</v>
@@ -1437,19 +1437,19 @@
         <v>313290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281250</v>
+        <v>283840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>344407</v>
+        <v>349296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.160445712675354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1440369958440098</v>
+        <v>0.1453636839835186</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1763818544298989</v>
+        <v>0.1788860106946377</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1026880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1000975</v>
+        <v>999536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1050298</v>
+        <v>1050748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8292427852595122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8083241192708056</v>
+        <v>0.8071615730509197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.848153680310247</v>
+        <v>0.8485175527065346</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>590</v>
@@ -1487,19 +1487,19 @@
         <v>612450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592258</v>
+        <v>592824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>629442</v>
+        <v>632166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8574310197560383</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8291625141191723</v>
+        <v>0.8299549996199845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8812195267605156</v>
+        <v>0.8850330445864976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1595</v>
@@ -1508,19 +1508,19 @@
         <v>1639330</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608213</v>
+        <v>1603324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1671370</v>
+        <v>1668780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8395542873246461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8236181455701014</v>
+        <v>0.8211139893053621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8559630041559904</v>
+        <v>0.8546363160164813</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>43189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33142</v>
+        <v>32088</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56689</v>
+        <v>57537</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1232031788786134</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09454102780967298</v>
+        <v>0.09153506493412746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1617112763838519</v>
+        <v>0.1641303249414847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1633,19 +1633,19 @@
         <v>88554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70756</v>
+        <v>73639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107745</v>
+        <v>108471</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1556982555620016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1244050101337727</v>
+        <v>0.1294750274939337</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1894402371309675</v>
+        <v>0.1907177928132578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -1654,19 +1654,19 @@
         <v>131743</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110707</v>
+        <v>111985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152832</v>
+        <v>154742</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1433070532757154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1204244600051261</v>
+        <v>0.1218147660390617</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1662473531624333</v>
+        <v>0.1683243488017849</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>307366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293866</v>
+        <v>293018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317413</v>
+        <v>318467</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8767968211213866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.838288723616148</v>
+        <v>0.8358696750585153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.905458972190327</v>
+        <v>0.9084649350658724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>456</v>
@@ -1704,19 +1704,19 @@
         <v>480198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461007</v>
+        <v>460281</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497996</v>
+        <v>495113</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8443017444379984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8105597628690325</v>
+        <v>0.8092822071867422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8755949898662273</v>
+        <v>0.8705249725060662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -1725,19 +1725,19 @@
         <v>787564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>766475</v>
+        <v>764565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>808600</v>
+        <v>807322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8566929467242846</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8337526468375667</v>
+        <v>0.8316756511982148</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8795755399948739</v>
+        <v>0.8781852339609383</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1694</v>
+        <v>1801</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9899</v>
+        <v>10563</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01582840712908418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005682104856876292</v>
+        <v>0.006039877915898101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03319626796794677</v>
+        <v>0.03542282030351612</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>300</v>
@@ -1850,19 +1850,19 @@
         <v>310787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>281022</v>
+        <v>283629</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342461</v>
+        <v>342575</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2488763728815613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2250407887985356</v>
+        <v>0.2271287075069253</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2742412187537094</v>
+        <v>0.2743325318266096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>305</v>
@@ -1871,19 +1871,19 @@
         <v>315507</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284276</v>
+        <v>282402</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>350193</v>
+        <v>346896</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2039527715164143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1837641914914657</v>
+        <v>0.1825528033833341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2263748425480029</v>
+        <v>0.2242439413403004</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>293481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288302</v>
+        <v>287638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296507</v>
+        <v>296400</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841715928709158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9668037320320535</v>
+        <v>0.9645771796964823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9943178951431237</v>
+        <v>0.9939601220841018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>938</v>
@@ -1921,19 +1921,19 @@
         <v>937973</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>906299</v>
+        <v>906185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>967738</v>
+        <v>965131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7511236271184387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7257587812462906</v>
+        <v>0.7256674681733905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7749592112014644</v>
+        <v>0.7728712924930747</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1239</v>
@@ -1942,19 +1942,19 @@
         <v>1231453</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1196767</v>
+        <v>1200064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1262684</v>
+        <v>1264558</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7960472284835858</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.773625157451997</v>
+        <v>0.7757560586597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8162358085085342</v>
+        <v>0.8174471966166663</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>426305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>389120</v>
+        <v>393025</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>466571</v>
+        <v>468490</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1303609854455534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.118990077531621</v>
+        <v>0.1201841717546918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1426740062968254</v>
+        <v>0.1432609188420057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>556</v>
@@ -2067,19 +2067,19 @@
         <v>572800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>528444</v>
+        <v>532192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>617908</v>
+        <v>616084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1695614591239771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1564311983455083</v>
+        <v>0.1575407565065232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1829146375613063</v>
+        <v>0.1823746670316132</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>992</v>
@@ -2088,19 +2088,19 @@
         <v>999105</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>943036</v>
+        <v>939946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1059222</v>
+        <v>1058532</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1502794281314634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1418458492693744</v>
+        <v>0.1413811574587936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1593218474927613</v>
+        <v>0.159218185375185</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2843885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2803619</v>
+        <v>2801700</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2881070</v>
+        <v>2877165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8696390145544466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8573259937031745</v>
+        <v>0.8567390811579944</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8810099224683789</v>
+        <v>0.8798158282453082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2740</v>
@@ -2138,19 +2138,19 @@
         <v>2805324</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2760216</v>
+        <v>2762040</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2849680</v>
+        <v>2845932</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8304385408760229</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8170853624386935</v>
+        <v>0.817625332968387</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8435688016544917</v>
+        <v>0.8424592434934769</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5511</v>
@@ -2159,19 +2159,19 @@
         <v>5649209</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5589092</v>
+        <v>5589782</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5705278</v>
+        <v>5708368</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8497205718685367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8406781525072388</v>
+        <v>0.8407818146248149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8581541507306257</v>
+        <v>0.8586188425412061</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>69415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54745</v>
+        <v>54004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86311</v>
+        <v>87202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.158766869454769</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1252151186815641</v>
+        <v>0.1235191187944049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.197413053799264</v>
+        <v>0.1994517339543559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2526,19 +2526,19 @@
         <v>29351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19561</v>
+        <v>20141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42510</v>
+        <v>42449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09333852828277964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06220762258359101</v>
+        <v>0.06405187932285603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1351860882756473</v>
+        <v>0.1349926898990042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -2547,19 +2547,19 @@
         <v>98765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79223</v>
+        <v>80735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121698</v>
+        <v>120065</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1313953418361669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1053961405583309</v>
+        <v>0.1074078838897359</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1619049565454735</v>
+        <v>0.1597325878472163</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>367796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350900</v>
+        <v>350009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>382466</v>
+        <v>383207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.841233130545231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8025869462007358</v>
+        <v>0.8005482660456436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8747848813184358</v>
+        <v>0.8764808812055949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -2597,19 +2597,19 @@
         <v>285103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271944</v>
+        <v>272005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294893</v>
+        <v>294313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9066614717172203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8648139117243528</v>
+        <v>0.865007310100996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9377923774164092</v>
+        <v>0.9359481206771441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>602</v>
@@ -2618,19 +2618,19 @@
         <v>652900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629967</v>
+        <v>631600</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>672442</v>
+        <v>670930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.868604658163833</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8380950434545266</v>
+        <v>0.8402674121527832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8946038594416691</v>
+        <v>0.892592116110264</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>52973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39519</v>
+        <v>40272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68240</v>
+        <v>66860</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.126488383292618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09436296960122126</v>
+        <v>0.09616024600919598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1629417483415822</v>
+        <v>0.1596468300376246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -2743,19 +2743,19 @@
         <v>33104</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23266</v>
+        <v>23288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47390</v>
+        <v>45241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09793776108277864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0688315608631087</v>
+        <v>0.068898299603996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1402025136155862</v>
+        <v>0.1338455652676047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -2764,19 +2764,19 @@
         <v>86077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69235</v>
+        <v>69423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105306</v>
+        <v>107101</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1137368975007032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09148239345839448</v>
+        <v>0.09173084459880747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1391449102056521</v>
+        <v>0.1415169557811322</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>365824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350557</v>
+        <v>351937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>379278</v>
+        <v>378525</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.873511616707382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8370582516584179</v>
+        <v>0.8403531699623754</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9056370303987787</v>
+        <v>0.9038397539908041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>276</v>
@@ -2814,19 +2814,19 @@
         <v>304907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290621</v>
+        <v>292770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>314745</v>
+        <v>314723</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9020622389172214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8597974863844139</v>
+        <v>0.8661544347323955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9311684391368913</v>
+        <v>0.9311017003960042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>600</v>
@@ -2835,19 +2835,19 @@
         <v>670731</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>651502</v>
+        <v>649707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>687573</v>
+        <v>687385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8862631024992967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8608550897943479</v>
+        <v>0.8584830442188678</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9085176065416055</v>
+        <v>0.9082691554011925</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>135110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114162</v>
+        <v>113855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158020</v>
+        <v>155841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.214660333948226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1813785928357487</v>
+        <v>0.1808903988737965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2510581002468843</v>
+        <v>0.2475960640893407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2960,19 +2960,19 @@
         <v>57971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45433</v>
+        <v>45242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73086</v>
+        <v>72679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2228529025983709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1746566086509209</v>
+        <v>0.1739230972003297</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2809598376917455</v>
+        <v>0.2793978029931182</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -2981,19 +2981,19 @@
         <v>193081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166117</v>
+        <v>167324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>217984</v>
+        <v>219846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.217056086845121</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1867438904924255</v>
+        <v>0.1881011089679956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2450515101156772</v>
+        <v>0.2471450323464698</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>494305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>471395</v>
+        <v>473574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515253</v>
+        <v>515560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7853396660517741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7489418997531156</v>
+        <v>0.7524039359106593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8186214071642512</v>
+        <v>0.8191096011262035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -3031,19 +3031,19 @@
         <v>202158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187043</v>
+        <v>187450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214696</v>
+        <v>214887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7771470974016291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7190401623082545</v>
+        <v>0.7206021970068817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8253433913490791</v>
+        <v>0.8260769027996703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>662</v>
@@ -3052,19 +3052,19 @@
         <v>696463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671560</v>
+        <v>669698</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>723427</v>
+        <v>722220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.782943913154879</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7549484898843227</v>
+        <v>0.7528549676535302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8132561095075744</v>
+        <v>0.8118988910320044</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>221208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195287</v>
+        <v>196336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>252978</v>
+        <v>251739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1908595565148884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1684947497941921</v>
+        <v>0.1693995293294687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2182707123963391</v>
+        <v>0.2172018830650071</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3177,19 +3177,19 @@
         <v>82661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67477</v>
+        <v>66660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101734</v>
+        <v>101135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1080931015199666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08823720199879347</v>
+        <v>0.08716911150477924</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1330345906834823</v>
+        <v>0.1322506265089992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>282</v>
@@ -3198,19 +3198,19 @@
         <v>303869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>275236</v>
+        <v>271906</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341074</v>
+        <v>336766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1579582150938972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1430742224026841</v>
+        <v>0.1413430865155601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1772983598274144</v>
+        <v>0.1750589245957214</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>937801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>906031</v>
+        <v>907270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>963722</v>
+        <v>962673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8091404434851116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7817292876036609</v>
+        <v>0.7827981169349929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8315052502058079</v>
+        <v>0.8306004706705313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>632</v>
@@ -3248,19 +3248,19 @@
         <v>682061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>662988</v>
+        <v>663587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>697245</v>
+        <v>698062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8919068984800335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8669654093165174</v>
+        <v>0.8677493734910009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9117627980012065</v>
+        <v>0.9128308884952206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1511</v>
@@ -3269,19 +3269,19 @@
         <v>1619862</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1582657</v>
+        <v>1586965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1648495</v>
+        <v>1651825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8420417849061027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8227016401725857</v>
+        <v>0.8249410754042786</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8569257775973159</v>
+        <v>0.85865691348444</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>93912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77538</v>
+        <v>76735</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114457</v>
+        <v>116967</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1839269975275165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1518568660975244</v>
+        <v>0.1502853146736198</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2241641990750285</v>
+        <v>0.2290783733601891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -3394,19 +3394,19 @@
         <v>192352</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170365</v>
+        <v>169829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217683</v>
+        <v>216065</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2530129234917365</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2240918741708249</v>
+        <v>0.2233868488301037</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.286332112824183</v>
+        <v>0.284204107118274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -3415,19 +3415,19 @@
         <v>286265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>256367</v>
+        <v>257668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318598</v>
+        <v>316633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.225255735209527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2017296355611216</v>
+        <v>0.202753351915282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2506985194828787</v>
+        <v>0.2491515912287137</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>416684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396139</v>
+        <v>393629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>433058</v>
+        <v>433861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8160730024724836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7758358009249714</v>
+        <v>0.770921626639811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8481431339024752</v>
+        <v>0.8497146853263803</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -3465,19 +3465,19 @@
         <v>567894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>542563</v>
+        <v>544181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>589881</v>
+        <v>590417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7469870765082635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.713667887175817</v>
+        <v>0.715795892881726</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7759081258291751</v>
+        <v>0.7766131511698964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>924</v>
@@ -3486,19 +3486,19 @@
         <v>984578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>952245</v>
+        <v>954210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1014476</v>
+        <v>1013175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.774744264790473</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7493014805171212</v>
+        <v>0.7508484087712862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7982703644388784</v>
+        <v>0.797246648084718</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3960</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9828</v>
+        <v>9931</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01483828827909281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003732278388610725</v>
+        <v>0.003751598355088195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0368241852857376</v>
+        <v>0.03721285590616598</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>324</v>
@@ -3611,19 +3611,19 @@
         <v>347739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>316409</v>
+        <v>315308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>379764</v>
+        <v>382963</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3137748046532131</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2855046623220426</v>
+        <v>0.2845116903683222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3426718526931033</v>
+        <v>0.3455590050933827</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>328</v>
@@ -3632,19 +3632,19 @@
         <v>351699</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>320401</v>
+        <v>317962</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>387742</v>
+        <v>383679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2557576955021624</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2329974922258722</v>
+        <v>0.2312242536559351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2819685280689404</v>
+        <v>0.279014203090733</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>262922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257054</v>
+        <v>256951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265886</v>
+        <v>265881</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851617117209072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9631758147142625</v>
+        <v>0.9627871440938344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962677216113892</v>
+        <v>0.9962484016449118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>719</v>
@@ -3682,19 +3682,19 @@
         <v>760504</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>728479</v>
+        <v>725280</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>791834</v>
+        <v>792935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6862251953467869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6573281473068967</v>
+        <v>0.6544409949066173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7144953376779574</v>
+        <v>0.7154883096316778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>980</v>
@@ -3703,19 +3703,19 @@
         <v>1023426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>987383</v>
+        <v>991446</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1054724</v>
+        <v>1057163</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7442423044978377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7180314719310595</v>
+        <v>0.7209857969092671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7670025077741277</v>
+        <v>0.7687757463440649</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>576578</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>530442</v>
+        <v>531830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>622407</v>
+        <v>625333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1684960831486235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1550133621227719</v>
+        <v>0.1554191422447996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1818888757918669</v>
+        <v>0.1827439389562226</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>689</v>
@@ -3828,19 +3828,19 @@
         <v>743177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>695940</v>
+        <v>695238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>790964</v>
+        <v>793564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.20959334682359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1962714079359374</v>
+        <v>0.1960732409609031</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2230703777111041</v>
+        <v>0.2238034389052987</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1213</v>
@@ -3849,19 +3849,19 @@
         <v>1319756</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1251491</v>
+        <v>1251890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1383925</v>
+        <v>1386861</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1894100993579768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1796128310009136</v>
+        <v>0.1796700612482442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1986195565436309</v>
+        <v>0.1990409307911508</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2845332</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2799503</v>
+        <v>2796577</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2891468</v>
+        <v>2890080</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8315039168513765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8181111242081329</v>
+        <v>0.8172560610437775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8449866378772278</v>
+        <v>0.8445808577552005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2598</v>
@@ -3899,19 +3899,19 @@
         <v>2802629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2754842</v>
+        <v>2752242</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2849866</v>
+        <v>2850568</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.79040665317641</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7769296222888961</v>
+        <v>0.7761965610947014</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8037285920640627</v>
+        <v>0.8039267590390969</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5279</v>
@@ -3920,19 +3920,19 @@
         <v>5647960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5583791</v>
+        <v>5580855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5716225</v>
+        <v>5715826</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8105899006420232</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8013804434563691</v>
+        <v>0.8009590692088492</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8203871689990864</v>
+        <v>0.8203299387517557</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>56927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43508</v>
+        <v>43497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73687</v>
+        <v>73484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1326688979810854</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.101396048494564</v>
+        <v>0.1013700392940944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1717282602102765</v>
+        <v>0.171255382601309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -4287,19 +4287,19 @@
         <v>30586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19438</v>
+        <v>20366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44609</v>
+        <v>46437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08813055366719301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0560081795668663</v>
+        <v>0.05868375907872021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1285364089695287</v>
+        <v>0.1338022669370726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -4308,19 +4308,19 @@
         <v>87513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70755</v>
+        <v>69125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106516</v>
+        <v>107937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1127535306905352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09116197566858417</v>
+        <v>0.08906109834670542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1372370051052256</v>
+        <v>0.1390671928335968</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>372165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355405</v>
+        <v>355608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385584</v>
+        <v>385595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8673311020189145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8282717397897235</v>
+        <v>0.828744617398691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.898603951505436</v>
+        <v>0.8986299607059056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -4358,19 +4358,19 @@
         <v>316469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302446</v>
+        <v>300618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327617</v>
+        <v>326689</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.911869446332807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8714635910304718</v>
+        <v>0.8661977330629271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9439918204331337</v>
+        <v>0.9413162409212797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -4379,19 +4379,19 @@
         <v>688634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>669631</v>
+        <v>668210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>705392</v>
+        <v>707022</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8872464693094647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8627629948947739</v>
+        <v>0.8609328071664032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9088380243314158</v>
+        <v>0.9109389016532947</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>55371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42220</v>
+        <v>42966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71223</v>
+        <v>70067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1467845416263339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1119228865423999</v>
+        <v>0.1138991385388505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1888067173030304</v>
+        <v>0.1857420239706108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -4504,19 +4504,19 @@
         <v>31303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21056</v>
+        <v>20702</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44994</v>
+        <v>44360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08408536000374135</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05656143794269492</v>
+        <v>0.05560883724122629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1208619171224461</v>
+        <v>0.1191606407130044</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -4525,19 +4525,19 @@
         <v>86674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69119</v>
+        <v>70697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106718</v>
+        <v>106456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.115642151943861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09222062035713291</v>
+        <v>0.09432571643807794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1423854537665487</v>
+        <v>0.1420366589424818</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>321856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306004</v>
+        <v>307160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335007</v>
+        <v>334261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8532154583736661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8111932826969696</v>
+        <v>0.8142579760293892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8880771134576</v>
+        <v>0.8861008614611494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>326</v>
@@ -4575,19 +4575,19 @@
         <v>340970</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327279</v>
+        <v>327913</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351217</v>
+        <v>351571</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9159146399962587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.879138082877554</v>
+        <v>0.8808393592869956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9434385620573051</v>
+        <v>0.9443911627587736</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>628</v>
@@ -4596,19 +4596,19 @@
         <v>662826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642782</v>
+        <v>643044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>680381</v>
+        <v>678803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8843578480561389</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8576145462334512</v>
+        <v>0.8579633410575187</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.907779379642867</v>
+        <v>0.905674283561922</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>85544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70349</v>
+        <v>69081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103510</v>
+        <v>101549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1639039877350159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.13479045723194</v>
+        <v>0.1323600858684215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1983278154083431</v>
+        <v>0.1945700643188417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -4721,19 +4721,19 @@
         <v>33924</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23708</v>
+        <v>22923</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46076</v>
+        <v>46956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2042078218019282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1427165205397594</v>
+        <v>0.137987360917292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2773583005173325</v>
+        <v>0.2826602821680119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -4742,19 +4742,19 @@
         <v>119467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100810</v>
+        <v>100444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141407</v>
+        <v>141005</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1736351371470227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.146518536866458</v>
+        <v>0.1459862131764776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2055223445340463</v>
+        <v>0.2049386783944835</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>436370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>418404</v>
+        <v>420365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451565</v>
+        <v>452833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8360960122649841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8016721845916569</v>
+        <v>0.8054299356811585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8652095427680599</v>
+        <v>0.8676399141315788</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -4792,19 +4792,19 @@
         <v>132199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120047</v>
+        <v>119167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142415</v>
+        <v>143200</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7957921781980718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7226416994826678</v>
+        <v>0.7173397178319884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8572834794602405</v>
+        <v>0.8620126390827082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -4813,19 +4813,19 @@
         <v>568569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546629</v>
+        <v>547031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>587226</v>
+        <v>587592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8263648628529773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7944776554659536</v>
+        <v>0.7950613216055165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.853481463133542</v>
+        <v>0.8540137868235224</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>212622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185768</v>
+        <v>188432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237707</v>
+        <v>240304</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1849470446973666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1615884985163917</v>
+        <v>0.1639058353831778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2067668009861879</v>
+        <v>0.2090257287671685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -4938,19 +4938,19 @@
         <v>92489</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74438</v>
+        <v>74779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111509</v>
+        <v>111187</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1119891573427211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09013275712213971</v>
+        <v>0.09054565174539733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1350185930595326</v>
+        <v>0.134628702977725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>295</v>
@@ -4959,19 +4959,19 @@
         <v>305111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271723</v>
+        <v>276182</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335476</v>
+        <v>340815</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.15444655173601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1375454575455632</v>
+        <v>0.13980248737215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1698171309136436</v>
+        <v>0.1725194352101672</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>937016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911931</v>
+        <v>909334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>963870</v>
+        <v>961206</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8150529553026334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7932331990138122</v>
+        <v>0.7909742712328316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8384115014836082</v>
+        <v>0.8360941646168223</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>714</v>
@@ -5009,19 +5009,19 @@
         <v>733387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>714367</v>
+        <v>714689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>751438</v>
+        <v>751097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8880108426572789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8649814069404672</v>
+        <v>0.8653712970222748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9098672428778604</v>
+        <v>0.9094543482546026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1606</v>
@@ -5030,19 +5030,19 @@
         <v>1670403</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1640038</v>
+        <v>1634699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1703791</v>
+        <v>1699332</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8455534482639899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8301828690863565</v>
+        <v>0.827480564789833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8624545424544371</v>
+        <v>0.86019751262785</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>101582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84056</v>
+        <v>83710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119725</v>
+        <v>120163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1636547938032357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1354193204082257</v>
+        <v>0.1348628211105961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.192885711876445</v>
+        <v>0.1935902865549233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -5155,19 +5155,19 @@
         <v>141359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>121191</v>
+        <v>121925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165371</v>
+        <v>163595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1914806623734684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1641618353675045</v>
+        <v>0.1651558717028226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2240061344489025</v>
+        <v>0.2215999591444858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -5176,19 +5176,19 @@
         <v>242941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209667</v>
+        <v>215907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>269290</v>
+        <v>273194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1787710850326532</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1542859756391485</v>
+        <v>0.1588776363291885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1981601855422543</v>
+        <v>0.2010328008291515</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>519124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>500981</v>
+        <v>500543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>536650</v>
+        <v>536996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8363452061967643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8071142881235551</v>
+        <v>0.8064097134450767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8645806795917742</v>
+        <v>0.8651371788894039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>572</v>
@@ -5226,19 +5226,19 @@
         <v>596885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>572873</v>
+        <v>574649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>617053</v>
+        <v>616319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8085193376265316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7759938655510982</v>
+        <v>0.7784000408555142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8358381646324964</v>
+        <v>0.8348441282971774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1065</v>
@@ -5247,19 +5247,19 @@
         <v>1116009</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1089660</v>
+        <v>1085756</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1149283</v>
+        <v>1143043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8212289149673468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8018398144577452</v>
+        <v>0.7989671991708485</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8457140243608514</v>
+        <v>0.8411223636708114</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6707</v>
+        <v>7700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007410456248445461</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02335805962769241</v>
+        <v>0.02681504732999184</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -5372,19 +5372,19 @@
         <v>296405</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>268754</v>
+        <v>266472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>330000</v>
+        <v>330067</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2739354950005185</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2483802764182149</v>
+        <v>0.2462714244804219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3049836422972252</v>
+        <v>0.3050459091108325</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>251</v>
@@ -5393,19 +5393,19 @@
         <v>298533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>266988</v>
+        <v>266273</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>331430</v>
+        <v>332577</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2180393158772441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1950000785433571</v>
+        <v>0.1944779205145027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.242066639780415</v>
+        <v>0.2429042936596058</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>285017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280438</v>
+        <v>279445</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9925895437515545</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9766419403723068</v>
+        <v>0.9731849526700079</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>785620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>752025</v>
+        <v>751958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>813271</v>
+        <v>815553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7260645049994815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6950163577027747</v>
+        <v>0.6949540908891675</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7516197235817851</v>
+        <v>0.7537285755195782</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1013</v>
@@ -5464,19 +5464,19 @@
         <v>1070637</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037740</v>
+        <v>1036593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1102182</v>
+        <v>1102897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7819606841227559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7579333602195854</v>
+        <v>0.7570957063403942</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.804999921456643</v>
+        <v>0.8055220794854973</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>514174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>472729</v>
+        <v>471956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555951</v>
+        <v>558111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1518652638193465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.139624176503399</v>
+        <v>0.1393960268271007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.164204663098399</v>
+        <v>0.1648425262566021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>536</v>
@@ -5589,19 +5589,19 @@
         <v>626066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>573653</v>
+        <v>583379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>669713</v>
+        <v>678657</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.177275681870844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1624343519641215</v>
+        <v>0.165188354217169</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1896346813600882</v>
+        <v>0.1921671884704909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1044</v>
@@ -5610,19 +5610,19 @@
         <v>1140240</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1072536</v>
+        <v>1078359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1202606</v>
+        <v>1202735</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1648384026735768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1550508506227612</v>
+        <v>0.1558926318309946</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1738543914269458</v>
+        <v>0.1738730960149528</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2871548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2829771</v>
+        <v>2827611</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2912993</v>
+        <v>2913766</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8481347361806536</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8357953369016009</v>
+        <v>0.8351574737433979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.860375823496601</v>
+        <v>0.8606039731728989</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2790</v>
@@ -5660,19 +5660,19 @@
         <v>2905530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2861883</v>
+        <v>2852939</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2957943</v>
+        <v>2948217</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.822724318129156</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8103653186399117</v>
+        <v>0.8078328115295093</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8375656480358785</v>
+        <v>0.8348116457828312</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5506</v>
@@ -5681,19 +5681,19 @@
         <v>5777078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5714712</v>
+        <v>5714583</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5844782</v>
+        <v>5838959</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8351615973264231</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8261456085730542</v>
+        <v>0.8261269039850472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8449491493772389</v>
+        <v>0.8441073681690054</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>114897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98621</v>
+        <v>96751</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134973</v>
+        <v>132982</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2095616954348652</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1798750480270456</v>
+        <v>0.1764647851173144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2461777326960054</v>
+        <v>0.2425463631032047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -6048,19 +6048,19 @@
         <v>62982</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50732</v>
+        <v>52117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75373</v>
+        <v>75504</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1289534129691678</v>
+        <v>0.1289534129691677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1038713316038076</v>
+        <v>0.106708127246848</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1543225705381472</v>
+        <v>0.15459090260876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -6069,19 +6069,19 @@
         <v>177879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157835</v>
+        <v>157720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>200571</v>
+        <v>202523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1715848601871351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1522499903518061</v>
+        <v>0.1521387235005544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1934740633444374</v>
+        <v>0.1953567720194046</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>433376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413300</v>
+        <v>415291</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449652</v>
+        <v>451522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7904383045651349</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7538222673039946</v>
+        <v>0.757453636896795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8201249519729543</v>
+        <v>0.8235352148826854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>583</v>
@@ -6119,19 +6119,19 @@
         <v>425429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413038</v>
+        <v>412907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>437679</v>
+        <v>436294</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8710465870308323</v>
+        <v>0.8710465870308322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8456774294618528</v>
+        <v>0.8454090973912405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8961286683961924</v>
+        <v>0.8932918727531521</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>992</v>
@@ -6140,19 +6140,19 @@
         <v>858804</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>836112</v>
+        <v>834160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>878848</v>
+        <v>878963</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8284151398128646</v>
+        <v>0.8284151398128647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8065259366555626</v>
+        <v>0.8046432279805951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8477500096481937</v>
+        <v>0.8478612764994455</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>103506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88096</v>
+        <v>87686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122596</v>
+        <v>121646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2142041526682343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1823132912329511</v>
+        <v>0.1814645165698885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2537106278036004</v>
+        <v>0.2517441377623519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -6265,19 +6265,19 @@
         <v>58007</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47828</v>
+        <v>47561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70493</v>
+        <v>69262</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1374953588347415</v>
+        <v>0.1374953588347416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1133681678122404</v>
+        <v>0.1127341475105755</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1670907036921468</v>
+        <v>0.1641729944950792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -6286,19 +6286,19 @@
         <v>161513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143309</v>
+        <v>142751</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184624</v>
+        <v>184139</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1784485154431202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1583348716734396</v>
+        <v>0.1577184751409052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2039818328294835</v>
+        <v>0.2034468983972223</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>379706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>360616</v>
+        <v>361566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>395116</v>
+        <v>395526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7857958473317657</v>
+        <v>0.7857958473317656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7462893721964001</v>
+        <v>0.7482558622376482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8176867087670491</v>
+        <v>0.8185354834301114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>492</v>
@@ -6336,19 +6336,19 @@
         <v>363879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351393</v>
+        <v>352624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>374058</v>
+        <v>374325</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8625046411652585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8329092963078529</v>
+        <v>0.8358270055049207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8866318321877598</v>
+        <v>0.8872658524894245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>845</v>
@@ -6357,19 +6357,19 @@
         <v>743585</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720474</v>
+        <v>720959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>761789</v>
+        <v>762347</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8215514845568799</v>
+        <v>0.8215514845568795</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7960181671705168</v>
+        <v>0.7965531016027777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8416651283265607</v>
+        <v>0.8422815248590948</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>98239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82404</v>
+        <v>82764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117197</v>
+        <v>116653</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2086898039617658</v>
+        <v>0.2086898039617657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.175050777569129</v>
+        <v>0.1758150899362134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2489617837517054</v>
+        <v>0.2478059016937835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -6482,19 +6482,19 @@
         <v>45076</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36575</v>
+        <v>36513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55107</v>
+        <v>55014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2412781388582141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1957730564641206</v>
+        <v>0.1954418921573442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2949726622721641</v>
+        <v>0.2944742419333045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -6503,19 +6503,19 @@
         <v>143316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123541</v>
+        <v>125322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162610</v>
+        <v>163037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.217948546899984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1878764794504135</v>
+        <v>0.1905852241386558</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2472902142489966</v>
+        <v>0.2479401247722237</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>372504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353546</v>
+        <v>354090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388339</v>
+        <v>387979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7913101960382344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7510382162482946</v>
+        <v>0.7521940983062162</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.824949222430871</v>
+        <v>0.8241849100637866</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -6553,19 +6553,19 @@
         <v>141746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131715</v>
+        <v>131808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150247</v>
+        <v>150309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7587218611417856</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7050273377278362</v>
+        <v>0.7055257580666954</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8042269435358795</v>
+        <v>0.8045581078426558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>569</v>
@@ -6574,19 +6574,19 @@
         <v>514250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>494956</v>
+        <v>494529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>534025</v>
+        <v>532244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.782051453100016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7527097857510029</v>
+        <v>0.7520598752277762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8121235205495864</v>
+        <v>0.8094147758613441</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>237354</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212946</v>
+        <v>212935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264672</v>
+        <v>265423</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2099956301538899</v>
+        <v>0.2099956301538898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.188401468964058</v>
+        <v>0.1883915850123518</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2341649322766732</v>
+        <v>0.2348299281513181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -6699,19 +6699,19 @@
         <v>133723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119561</v>
+        <v>118018</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150938</v>
+        <v>149257</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1553829474729357</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1389267115001747</v>
+        <v>0.1371339887820703</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1753864251420031</v>
+        <v>0.1734333673078668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>555</v>
@@ -6720,19 +6720,19 @@
         <v>371077</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>341972</v>
+        <v>339687</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>403145</v>
+        <v>403126</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1863880807935271</v>
+        <v>0.1863880807935272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1717690884207925</v>
+        <v>0.1706214655654999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2024955718404554</v>
+        <v>0.2024862898781041</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>892925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>865607</v>
+        <v>864856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>917333</v>
+        <v>917344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7900043698461101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.765835067723327</v>
+        <v>0.765170071848682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8115985310359422</v>
+        <v>0.8116084149876484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>984</v>
@@ -6770,19 +6770,19 @@
         <v>726880</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709665</v>
+        <v>711346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>741042</v>
+        <v>742585</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8446170525270643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8246135748579969</v>
+        <v>0.8265666326921334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.861073288499825</v>
+        <v>0.8628660112179299</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1790</v>
@@ -6791,19 +6791,19 @@
         <v>1619805</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1587737</v>
+        <v>1587756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1648910</v>
+        <v>1651195</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8136119192064728</v>
+        <v>0.8136119192064729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7975044281595444</v>
+        <v>0.7975137101218962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8282309115792074</v>
+        <v>0.8293785344345002</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>106797</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91401</v>
+        <v>88808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125758</v>
+        <v>124456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.188361991451813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.161208323310833</v>
+        <v>0.156634313611274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2218056010180806</v>
+        <v>0.2195085453250276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>433</v>
@@ -6916,19 +6916,19 @@
         <v>230403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211854</v>
+        <v>210698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>249795</v>
+        <v>250610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2777419161217834</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2553813470430513</v>
+        <v>0.2539885179794122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3011178151119815</v>
+        <v>0.3021008159233851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>572</v>
@@ -6937,19 +6937,19 @@
         <v>337200</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>309553</v>
+        <v>311203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>363747</v>
+        <v>367749</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2414547502376049</v>
+        <v>0.241454750237605</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2216580842880916</v>
+        <v>0.2228390383108623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2604637639524969</v>
+        <v>0.2633293234359605</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>460179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441218</v>
+        <v>442520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475575</v>
+        <v>478168</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.811638008548187</v>
+        <v>0.8116380085481869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7781943989819193</v>
+        <v>0.7804914546749725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.838791676689167</v>
+        <v>0.8433656863887261</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>855</v>
@@ -6987,19 +6987,19 @@
         <v>599156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>579764</v>
+        <v>578949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>617705</v>
+        <v>618861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7222580838782167</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6988821848880186</v>
+        <v>0.697899184076615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7446186529569487</v>
+        <v>0.7460114820205878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1262</v>
@@ -7008,19 +7008,19 @@
         <v>1059335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1032788</v>
+        <v>1028786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1086982</v>
+        <v>1085332</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7585452497623951</v>
+        <v>0.758545249762395</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7395362360475031</v>
+        <v>0.7366706765640397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7783419157119087</v>
+        <v>0.7771609616891378</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>4488</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1926</v>
+        <v>1816</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9660</v>
+        <v>9700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01891721130174707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008117980273202418</v>
+        <v>0.007656001544096427</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04071925130927732</v>
+        <v>0.04088813019467043</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>442</v>
@@ -7133,19 +7133,19 @@
         <v>240986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216860</v>
+        <v>217334</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>262708</v>
+        <v>262191</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2858011165815083</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2571888820959508</v>
+        <v>0.2577508928897723</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.311562228899058</v>
+        <v>0.3109498942983003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>449</v>
@@ -7154,19 +7154,19 @@
         <v>245474</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221486</v>
+        <v>223753</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269287</v>
+        <v>271778</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2272016068419013</v>
+        <v>0.2272016068419012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2049996537976283</v>
+        <v>0.2070972295019151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2492424773791962</v>
+        <v>0.2515476505930669</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>232740</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227568</v>
+        <v>227528</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235302</v>
+        <v>235412</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9810827886982529</v>
+        <v>0.9810827886982528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9592807486907224</v>
+        <v>0.9591118698053296</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9918820197267977</v>
+        <v>0.9923439984559037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>715</v>
@@ -7204,19 +7204,19 @@
         <v>602209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>580487</v>
+        <v>581004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>626335</v>
+        <v>625861</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7141988834184916</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6884377711009423</v>
+        <v>0.6890501057016997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7428111179040493</v>
+        <v>0.7422491071102277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>820</v>
@@ -7225,19 +7225,19 @@
         <v>834949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811136</v>
+        <v>808645</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>858937</v>
+        <v>856670</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7727983931580987</v>
+        <v>0.7727983931580986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7507575226208036</v>
+        <v>0.7484523494069331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7950003462023718</v>
+        <v>0.792902770498085</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>665280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>620919</v>
+        <v>621695</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>706228</v>
+        <v>706996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1935805535369975</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1806724329767233</v>
+        <v>0.1808982747342679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2054953291139088</v>
+        <v>0.2057189735903609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1400</v>
@@ -7350,19 +7350,19 @@
         <v>771178</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>734662</v>
+        <v>730142</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>810640</v>
+        <v>810623</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2124179149269982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2023597450015089</v>
+        <v>0.2011147005610658</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2232874165516656</v>
+        <v>0.2232828218187431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2252</v>
@@ -7371,19 +7371,19 @@
         <v>1436458</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1383183</v>
+        <v>1376398</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1492471</v>
+        <v>1496065</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2032574718236444</v>
+        <v>0.2032574718236445</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1957191299763132</v>
+        <v>0.1947589245769189</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2111832465121393</v>
+        <v>0.2116917518118431</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2771430</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2730482</v>
+        <v>2729714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2815791</v>
+        <v>2815015</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8064194464630023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.794504670886091</v>
+        <v>0.7942810264096384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8193275670232768</v>
+        <v>0.8191017252657318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3836</v>
@@ -7421,19 +7421,19 @@
         <v>2859298</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2819836</v>
+        <v>2819853</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2895814</v>
+        <v>2900334</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7875820850730018</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7767125834483345</v>
+        <v>0.776717178181257</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7976402549984911</v>
+        <v>0.7988852994389343</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6278</v>
@@ -7442,19 +7442,19 @@
         <v>5630728</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5574715</v>
+        <v>5571121</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5684003</v>
+        <v>5690788</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7967425281763557</v>
+        <v>0.7967425281763558</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7888167534878606</v>
+        <v>0.7883082481881569</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8042808700236868</v>
+        <v>0.8052410754230811</v>
       </c>
     </row>
     <row r="24">
